--- a/TestData/ExcelData.xlsx
+++ b/TestData/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srika\eclipse-workspace\medicare_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1ACB79-53B3-4DE7-B696-A0490C84BB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F091D7C-F36F-47AF-904A-7DC2283A4B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Email</t>
   </si>
@@ -37,25 +37,79 @@
   </si>
   <si>
     <t>Test@123</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Jhon</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>9999999999</t>
+  </si>
+  <si>
+    <t>Mancherial</t>
+  </si>
+  <si>
+    <t>Telanagana</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>InvalidPassword</t>
+  </si>
+  <si>
+    <t>Test@12345</t>
+  </si>
+  <si>
+    <t>504208</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <u/>
@@ -85,12 +139,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -372,36 +426,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{20DAD107-37AA-483C-9EC3-89B44837FEB1}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{11EE3D6D-122D-429C-A74E-0D3BED01A08E}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{1C0EA885-14AA-45A6-9246-7A78DD652C7B}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{7EC384F8-325C-4481-B5A4-888DCA57EF8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/ExcelData.xlsx
+++ b/TestData/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srika\eclipse-workspace\medicare_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F091D7C-F36F-47AF-904A-7DC2283A4B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03384BA-6413-4F4A-909B-C86627CF14DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Email</t>
   </si>
@@ -97,6 +97,30 @@
   </si>
   <si>
     <t>504208</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>443211118888</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>888</t>
   </si>
 </sst>
 </file>
@@ -426,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,9 +461,10 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,8 +504,20 @@
       <c r="M1" t="s">
         <v>13</v>
       </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -519,6 +556,18 @@
       </c>
       <c r="M2" t="s">
         <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
